--- a/R/PairwiseShinyApp/Jobs.xlsx
+++ b/R/PairwiseShinyApp/Jobs.xlsx
@@ -1,40 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980" tabRatio="500" activeTab="3"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sarah" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Bradley" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Aidan.H" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Sequyah" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Percy" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="Angelique" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="Drake" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="Elias" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="James" sheetId="9" r:id="rId11"/>
-    <sheet state="visible" name="Olivia" sheetId="10" r:id="rId12"/>
-    <sheet state="visible" name="Uriel" sheetId="11" r:id="rId13"/>
-    <sheet state="visible" name="Kreira" sheetId="12" r:id="rId14"/>
-    <sheet state="visible" name="Gianna" sheetId="13" r:id="rId15"/>
-    <sheet state="visible" name="Maya" sheetId="14" r:id="rId16"/>
-    <sheet state="visible" name="KayLynn" sheetId="15" r:id="rId17"/>
-    <sheet state="visible" name="Blaine" sheetId="16" r:id="rId18"/>
-    <sheet state="visible" name="Christian" sheetId="17" r:id="rId19"/>
-    <sheet state="visible" name="Drew" sheetId="18" r:id="rId20"/>
-    <sheet state="visible" name="Alijah" sheetId="19" r:id="rId21"/>
-    <sheet state="visible" name="Landon" sheetId="20" r:id="rId22"/>
-    <sheet state="visible" name="Liam" sheetId="21" r:id="rId23"/>
-    <sheet state="visible" name="Ceci" sheetId="22" r:id="rId24"/>
-    <sheet state="visible" name="Madison" sheetId="23" r:id="rId25"/>
-    <sheet state="visible" name="Vaughn" sheetId="24" r:id="rId26"/>
+    <sheet name="Sarah" sheetId="1" r:id="rId1"/>
+    <sheet name="Bradley" sheetId="2" r:id="rId2"/>
+    <sheet name="Aidan.H" sheetId="3" r:id="rId3"/>
+    <sheet name="Sequyah" sheetId="4" r:id="rId4"/>
+    <sheet name="Percy" sheetId="5" r:id="rId5"/>
+    <sheet name="Angelique" sheetId="6" r:id="rId6"/>
+    <sheet name="Drake" sheetId="7" r:id="rId7"/>
+    <sheet name="Elias" sheetId="8" r:id="rId8"/>
+    <sheet name="James" sheetId="9" r:id="rId9"/>
+    <sheet name="Olivia" sheetId="10" r:id="rId10"/>
+    <sheet name="Uriel" sheetId="11" r:id="rId11"/>
+    <sheet name="Kreira" sheetId="12" r:id="rId12"/>
+    <sheet name="Gianna" sheetId="13" r:id="rId13"/>
+    <sheet name="Maya" sheetId="14" r:id="rId14"/>
+    <sheet name="KayLynn" sheetId="15" r:id="rId15"/>
+    <sheet name="Blaine" sheetId="16" r:id="rId16"/>
+    <sheet name="Christian" sheetId="17" r:id="rId17"/>
+    <sheet name="Drew" sheetId="18" r:id="rId18"/>
+    <sheet name="Alijah" sheetId="19" r:id="rId19"/>
+    <sheet name="Landon" sheetId="20" r:id="rId20"/>
+    <sheet name="Liam" sheetId="21" r:id="rId21"/>
+    <sheet name="Ceci" sheetId="22" r:id="rId22"/>
+    <sheet name="Madison" sheetId="23" r:id="rId23"/>
+    <sheet name="Vaughn" sheetId="24" r:id="rId24"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="11">
   <si>
     <t>tables</t>
   </si>
@@ -72,15 +80,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -89,7 +101,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -98,136 +110,355 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing15.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing16.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing17.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing18.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing19.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing20.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing21.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing22.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing23.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing24.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -238,7 +469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -249,7 +480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -260,7 +491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -271,7 +502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -282,7 +513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -293,7 +524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -304,7 +535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -315,7 +546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -326,7 +557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -337,65 +568,71 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="C13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="C14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="C15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="C16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="3:5" ht="15.75" customHeight="1">
       <c r="C17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="3:5" ht="15.75" customHeight="1">
       <c r="C18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="3:5" ht="15.75" customHeight="1">
       <c r="C19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="3:5" ht="15.75" customHeight="1">
       <c r="C20" s="1"/>
       <c r="E20" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -406,7 +643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -417,7 +654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -428,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -439,7 +676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -461,7 +698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -472,7 +709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -494,7 +731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -513,18 +750,24 @@
       <c r="C11" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -535,7 +778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -546,7 +789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -557,7 +800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -568,7 +811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -579,7 +822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -590,7 +833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -601,7 +844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -612,7 +855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -623,7 +866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -634,28 +877,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -666,7 +915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -677,7 +926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -688,7 +937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -699,7 +948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -710,7 +959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -721,7 +970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -732,7 +981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -743,7 +992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -754,7 +1003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -765,28 +1014,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -797,7 +1052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -808,7 +1063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -819,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -830,7 +1085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -841,7 +1096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -852,7 +1107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -863,7 +1118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -874,7 +1129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -885,7 +1140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -896,28 +1151,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -928,7 +1189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -939,7 +1200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -950,7 +1211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -961,7 +1222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -972,7 +1233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -983,7 +1244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -994,7 +1255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1016,7 +1277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1027,28 +1288,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1070,7 +1337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1081,7 +1348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1092,7 +1359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1114,7 +1381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1125,7 +1392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1147,7 +1414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1158,28 +1425,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1190,7 +1463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1201,7 +1474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1212,7 +1485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1223,7 +1496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1234,7 +1507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1245,7 +1518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1256,7 +1529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1278,7 +1551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,28 +1562,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1321,7 +1600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1332,7 +1611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1343,7 +1622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1354,7 +1633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1365,7 +1644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1376,7 +1655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1387,7 +1666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1409,7 +1688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1420,28 +1699,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1452,7 +1737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1463,7 +1748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1474,7 +1759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1485,7 +1770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1496,7 +1781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1507,7 +1792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1518,7 +1803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +1814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1540,7 +1825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1551,28 +1836,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1583,7 +1874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1594,7 +1885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1605,7 +1896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1616,7 +1907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1627,7 +1918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1638,7 +1929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1649,7 +1940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1660,7 +1951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1671,7 +1962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1682,28 +1973,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1714,7 +2011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1725,7 +2022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1736,7 +2033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1747,7 +2044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1758,7 +2055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1769,7 +2066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1780,7 +2077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1791,7 +2088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1802,7 +2099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1813,28 +2110,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1845,7 +2148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1856,7 +2159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1867,7 +2170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1878,7 +2181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1889,7 +2192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1900,7 +2203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1911,7 +2214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1922,7 +2225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1933,7 +2236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1944,28 +2247,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1976,7 +2285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1987,7 +2296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1998,7 +2307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2009,7 +2318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2020,7 +2329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2031,7 +2340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2042,7 +2351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2053,7 +2362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2064,7 +2373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2075,28 +2384,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2107,7 +2422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2118,7 +2433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2129,7 +2444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2140,7 +2455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2151,7 +2466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2162,7 +2477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2173,7 +2488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2184,7 +2499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2195,7 +2510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2206,33 +2521,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2243,7 +2564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2254,7 +2575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2265,7 +2586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2276,7 +2597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2287,7 +2608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2298,7 +2619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2309,7 +2630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2320,7 +2641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2331,7 +2652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2342,27 +2663,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2373,7 +2700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2384,7 +2711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2395,7 +2722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2406,7 +2733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2417,7 +2744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2428,7 +2755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2439,7 +2766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2450,7 +2777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2461,7 +2788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2472,27 +2799,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2503,7 +2836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2514,7 +2847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2525,7 +2858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2536,7 +2869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2547,7 +2880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2558,7 +2891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2569,7 +2902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2580,7 +2913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2591,7 +2924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2602,31 +2935,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="C12" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2637,7 +2978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2648,7 +2989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2659,7 +3000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2670,7 +3011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2681,7 +3022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2692,7 +3033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2703,7 +3044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2714,7 +3055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2725,39 +3066,48 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="C12" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2768,7 +3118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2779,7 +3129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2790,7 +3140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2801,7 +3151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2812,7 +3162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2823,7 +3173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2834,7 +3184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2845,7 +3195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2856,7 +3206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2867,31 +3217,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="C12" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2902,7 +3258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2913,7 +3269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2924,7 +3280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2935,7 +3291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2946,7 +3302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2957,7 +3313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2968,7 +3324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2979,7 +3335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2990,7 +3346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -3001,28 +3357,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3033,7 +3395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3044,7 +3406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3055,7 +3417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3066,7 +3428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3077,7 +3439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3088,7 +3450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3099,7 +3461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3110,7 +3472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -3121,7 +3483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -3132,28 +3494,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3164,7 +3532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3175,7 +3543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3186,7 +3554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3197,7 +3565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3208,7 +3576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3219,7 +3587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3230,7 +3598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3241,7 +3609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -3252,7 +3620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -3263,28 +3631,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3295,7 +3669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3306,7 +3680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3317,7 +3691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3328,7 +3702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3339,7 +3713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3350,7 +3724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3361,7 +3735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3372,7 +3746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -3383,7 +3757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -3394,16 +3768,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>